--- a/Tools/ExcelToSql/Data/SampleData.xlsx
+++ b/Tools/ExcelToSql/Data/SampleData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LT2016\Documents\ContexturesSampleFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Tools\Tools\ExcelToSql\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="3525" windowWidth="20505" windowHeight="3540"/>
+    <workbookView xWindow="-20" yWindow="3530" windowWidth="20510" windowHeight="3540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
-  <si>
-    <t>Region</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="79">
   <si>
     <t>Rep</t>
   </si>
@@ -250,6 +247,18 @@
   </si>
   <si>
     <t>Related Contextures Products</t>
+  </si>
+  <si>
+    <t>East's</t>
+  </si>
+  <si>
+    <t>s'Kivell</t>
+  </si>
+  <si>
+    <t>Region's</t>
+  </si>
+  <si>
+    <t>'''''''Gill''</t>
   </si>
 </sst>
 </file>
@@ -257,8 +266,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -362,13 +371,13 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -426,7 +435,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -436,10 +445,10 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1">
@@ -459,12 +468,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Ctx_Hyperlink" xfId="2"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,7 +639,7 @@
   <autoFilter ref="A1:G44"/>
   <tableColumns count="7">
     <tableColumn id="1" name="OrderDate"/>
-    <tableColumn id="2" name="Region"/>
+    <tableColumn id="2" name="Region's"/>
     <tableColumn id="3" name="Rep"/>
     <tableColumn id="4" name="Item"/>
     <tableColumn id="5" name="Units"/>
@@ -639,9 +651,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -679,7 +691,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -785,7 +797,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -962,114 +974,114 @@
   <sheetPr codeName="Sheet30"/>
   <dimension ref="B1:C26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="2.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.1796875" style="9"/>
+    <col min="2" max="2" width="2.81640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" style="9" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C5" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="11"/>
       <c r="C6" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
       <c r="C8" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="11"/>
       <c r="C9" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C10" s="36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" s="11"/>
       <c r="C12" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C14" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C16" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C17" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C19" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="10" t="s">
+    <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C22"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C23"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C24"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C25"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C26"/>
     </row>
   </sheetData>
@@ -1095,58 +1107,58 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="11.54296875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="23">
         <v>42375</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="25">
         <v>95</v>
@@ -1158,18 +1170,18 @@
         <v>189.05</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="23">
         <v>42392</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="25">
         <v>50</v>
@@ -1181,18 +1193,18 @@
         <v>999.49999999999989</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>42409</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="25">
         <v>36</v>
@@ -1204,18 +1216,18 @@
         <v>179.64000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>42426</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>78</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="25">
         <v>27</v>
@@ -1227,18 +1239,18 @@
         <v>539.7299999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>42444</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="25">
         <v>56</v>
@@ -1250,18 +1262,18 @@
         <v>167.44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="23">
         <v>42461</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="25">
         <v>60</v>
@@ -1273,18 +1285,18 @@
         <v>299.40000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>42478</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="25">
         <v>75</v>
@@ -1296,18 +1308,18 @@
         <v>149.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>42495</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="25">
         <v>90</v>
@@ -1319,18 +1331,18 @@
         <v>449.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>42512</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="25">
         <v>32</v>
@@ -1342,18 +1354,18 @@
         <v>63.68</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <v>42529</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="25">
         <v>60</v>
@@ -1365,18 +1377,18 @@
         <v>539.4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="23">
         <v>42546</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="25">
         <v>90</v>
@@ -1388,18 +1400,18 @@
         <v>449.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="23">
         <v>42563</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="25">
         <v>29</v>
@@ -1411,18 +1423,18 @@
         <v>57.71</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>42580</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="25">
         <v>81</v>
@@ -1434,18 +1446,18 @@
         <v>1619.1899999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="23">
         <v>42597</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="25">
         <v>35</v>
@@ -1457,18 +1469,18 @@
         <v>174.65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>42614</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="25">
         <v>2</v>
@@ -1480,18 +1492,18 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="23">
         <v>42631</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="25">
         <v>16</v>
@@ -1503,18 +1515,18 @@
         <v>255.84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>42648</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="25">
         <v>28</v>
@@ -1526,18 +1538,18 @@
         <v>251.72</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="23">
         <v>42665</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="25">
         <v>64</v>
@@ -1549,18 +1561,18 @@
         <v>575.36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="23">
         <v>42682</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="25">
         <v>15</v>
@@ -1572,18 +1584,18 @@
         <v>299.84999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="23">
         <v>42699</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="25">
         <v>96</v>
@@ -1595,18 +1607,18 @@
         <v>479.04</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="23">
         <v>42716</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="25">
         <v>67</v>
@@ -1618,18 +1630,18 @@
         <v>86.43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="23">
         <v>42733</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="25">
         <v>74</v>
@@ -1641,18 +1653,18 @@
         <v>1183.26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="23">
         <v>42750</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="25">
         <v>46</v>
@@ -1664,18 +1676,18 @@
         <v>413.54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="23">
         <v>42767</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="25">
         <v>87</v>
@@ -1687,18 +1699,18 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="23">
         <v>42784</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="25">
         <v>4</v>
@@ -1710,18 +1722,18 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="23">
         <v>42801</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="25">
         <v>7</v>
@@ -1733,18 +1745,18 @@
         <v>139.92999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="23">
         <v>42818</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="25">
         <v>50</v>
@@ -1756,18 +1768,18 @@
         <v>249.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="23">
         <v>42835</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="25">
         <v>66</v>
@@ -1779,18 +1791,18 @@
         <v>131.34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="23">
         <v>42852</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="25">
         <v>96</v>
@@ -1802,18 +1814,18 @@
         <v>479.04</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="23">
         <v>42869</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="25">
         <v>53</v>
@@ -1825,18 +1837,18 @@
         <v>68.37</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="23">
         <v>42886</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="25">
         <v>80</v>
@@ -1848,18 +1860,18 @@
         <v>719.2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="23">
         <v>42903</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33" s="25">
         <v>5</v>
@@ -1871,18 +1883,18 @@
         <v>625</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="23">
         <v>42920</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="25">
         <v>62</v>
@@ -1894,18 +1906,18 @@
         <v>309.38</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="23">
         <v>42937</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="25">
         <v>55</v>
@@ -1917,18 +1929,18 @@
         <v>686.95</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="23">
         <v>42954</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="25">
         <v>42</v>
@@ -1940,18 +1952,18 @@
         <v>1005.9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="23">
         <v>42971</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="25">
         <v>3</v>
@@ -1963,18 +1975,18 @@
         <v>825</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="23">
         <v>42988</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="25">
         <v>7</v>
@@ -1986,18 +1998,18 @@
         <v>9.0300000000000011</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="23">
         <v>43005</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" s="25">
         <v>76</v>
@@ -2009,18 +2021,18 @@
         <v>151.24</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="23">
         <v>43022</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="25">
         <v>57</v>
@@ -2032,18 +2044,18 @@
         <v>1139.4299999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="23">
         <v>43039</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" s="25">
         <v>14</v>
@@ -2055,18 +2067,18 @@
         <v>18.060000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="23">
         <v>43056</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42" s="25">
         <v>11</v>
@@ -2078,18 +2090,18 @@
         <v>54.89</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="23">
         <v>43073</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="25">
         <v>94</v>
@@ -2101,18 +2113,18 @@
         <v>1879.06</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="23">
         <v>43090</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" s="25">
         <v>28</v>
@@ -2145,62 +2157,62 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="9" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:11" s="9" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C1" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C3" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="3:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="30" t="s">
+    <row r="5" spans="3:11" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C6" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>72</v>
-      </c>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
       <c r="F9" s="33"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.35">
       <c r="F10" s="33"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.35">
       <c r="F11" s="33"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.35">
       <c r="K12" s="9"/>
     </row>
   </sheetData>
@@ -2222,225 +2234,225 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="64" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="4"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
